--- a/SourceDataTables/FigS6b.xlsx
+++ b/SourceDataTables/FigS6b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +114,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS6b.xlsx
+++ b/SourceDataTables/FigS6b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -69,11 +69,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -97,6 +101,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,10 +122,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS6b.xlsx
+++ b/SourceDataTables/FigS6b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -55,29 +55,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -87,24 +69,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,10 +86,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -134,7 +98,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.19836783159246774</v>
+        <v>-0.19657384392204774</v>
       </c>
     </row>
     <row r="3">
@@ -142,7 +106,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.33161569835551313</v>
+        <v>-0.33019719308769541</v>
       </c>
     </row>
     <row r="4">
@@ -150,7 +114,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.066736524487468141</v>
+        <v>0.068856593247361667</v>
       </c>
     </row>
     <row r="5">
@@ -158,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.79354193859116628</v>
+        <v>0.79375589967710503</v>
       </c>
     </row>
     <row r="6">
@@ -166,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.72673128190909375</v>
+        <v>0.72588018039555613</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +138,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.35847739572633086</v>
+        <v>-0.35726039889873462</v>
       </c>
     </row>
     <row r="8">
@@ -182,7 +146,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.23324528706062728</v>
+        <v>-0.23177436949435185</v>
       </c>
     </row>
     <row r="9">
@@ -190,7 +154,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.098580633388186997</v>
+        <v>0.1005778422679544</v>
       </c>
     </row>
     <row r="10">
@@ -198,7 +162,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.074688366830300751</v>
+        <v>-0.072529162831961883</v>
       </c>
     </row>
     <row r="11">
@@ -206,7 +170,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.29917105720539988</v>
+        <v>0.30127274163452517</v>
       </c>
     </row>
     <row r="12">
@@ -214,7 +178,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.67100131644531191</v>
+        <v>0.67127203378926292</v>
       </c>
     </row>
     <row r="13">
@@ -222,7 +186,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.26112319388750965</v>
+        <v>0.26311400474527535</v>
       </c>
     </row>
     <row r="14">
@@ -230,7 +194,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.35983456985289347</v>
+        <v>-0.35851629894563447</v>
       </c>
     </row>
     <row r="15">
@@ -238,7 +202,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.36838455742156895</v>
+        <v>-0.36719016008569699</v>
       </c>
     </row>
     <row r="16">
@@ -246,7 +210,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.23458638241819943</v>
+        <v>-0.23302383260999485</v>
       </c>
     </row>
     <row r="17">
@@ -254,7 +218,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.29290437206427489</v>
+        <v>0.29490969266439565</v>
       </c>
     </row>
     <row r="18">
@@ -262,7 +226,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.015722584382018415</v>
+        <v>-0.013973776905612391</v>
       </c>
     </row>
     <row r="19">
@@ -270,7 +234,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.039711570051549912</v>
+        <v>-0.0378913962128999</v>
       </c>
     </row>
     <row r="20">
@@ -278,7 +242,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.38156114290809218</v>
+        <v>0.38356544489823441</v>
       </c>
     </row>
     <row r="21">
@@ -286,7 +250,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.32036525423537049</v>
+        <v>0.32049822820667551</v>
       </c>
     </row>
     <row r="22">
@@ -294,7 +258,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.13874309754970596</v>
+        <v>0.14055738290412287</v>
       </c>
     </row>
     <row r="23">
@@ -302,7 +266,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.34291282103359916</v>
+        <v>-0.34154329951892709</v>
       </c>
     </row>
     <row r="24">
@@ -310,7 +274,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.23805638408837324</v>
+        <v>-0.23652336397844281</v>
       </c>
     </row>
     <row r="25">
@@ -318,7 +282,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.42441629558973737</v>
+        <v>-0.42288352707057436</v>
       </c>
     </row>
     <row r="26">
@@ -326,7 +290,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.039811282644101949</v>
+        <v>0.041649888247746347</v>
       </c>
     </row>
     <row r="27">
@@ -334,7 +298,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.1089433908498563</v>
+        <v>-0.10723929251273263</v>
       </c>
     </row>
     <row r="28">
@@ -342,7 +306,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.090274005262504578</v>
+        <v>0.092114389126869867</v>
       </c>
     </row>
     <row r="29">
@@ -350,7 +314,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.67268732562639255</v>
+        <v>0.67457527152907792</v>
       </c>
     </row>
     <row r="30">
@@ -358,7 +322,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.034499503036270633</v>
+        <v>0.03616024272870421</v>
       </c>
     </row>
     <row r="31">
@@ -366,7 +330,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.41743259779428332</v>
+        <v>0.41930744308337592</v>
       </c>
     </row>
     <row r="32">
@@ -374,7 +338,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.0061009762056762878</v>
+        <v>-0.0043733444723483266</v>
       </c>
     </row>
     <row r="33">
@@ -382,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.16293810742215545</v>
+        <v>0.16467810568613869</v>
       </c>
     </row>
     <row r="34">
@@ -390,7 +354,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.093182742065935367</v>
+        <v>0.094807598263612833</v>
       </c>
     </row>
     <row r="35">
@@ -398,7 +362,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.085326062377741235</v>
+        <v>0.086866313071873175</v>
       </c>
     </row>
     <row r="36">
@@ -406,7 +370,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.22121931169757134</v>
+        <v>-0.21960682546800028</v>
       </c>
     </row>
     <row r="37">
@@ -414,7 +378,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.039191954800805659</v>
+        <v>0.040969207931683606</v>
       </c>
     </row>
     <row r="38">
@@ -422,7 +386,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.77414516995368343</v>
+        <v>0.77580106283997541</v>
       </c>
     </row>
     <row r="39">
@@ -430,7 +394,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-1.7007683593509548</v>
+        <v>-1.6995269458152724</v>
       </c>
     </row>
     <row r="40">
@@ -438,7 +402,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.12902150047735952</v>
+        <v>0.13075160267180186</v>
       </c>
     </row>
     <row r="41">
@@ -446,7 +410,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-1.9864467540336228</v>
+        <v>-1.9864151008695947</v>
       </c>
     </row>
     <row r="42">
@@ -454,7 +418,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.11428973150932425</v>
+        <v>0.11589524161456256</v>
       </c>
     </row>
     <row r="43">
@@ -462,7 +426,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.3204133033957644</v>
+        <v>0.32230940191134277</v>
       </c>
     </row>
     <row r="44">
@@ -470,7 +434,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.28035973707824796</v>
+        <v>0.28232392049849925</v>
       </c>
     </row>
     <row r="45">
@@ -478,7 +442,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.10217006391979601</v>
+        <v>0.10387514096121851</v>
       </c>
     </row>
     <row r="46">
@@ -486,7 +450,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.076265030133304351</v>
+        <v>-0.074485788205983394</v>
       </c>
     </row>
     <row r="47">
@@ -494,7 +458,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.37175325156007727</v>
+        <v>-0.37013639141365723</v>
       </c>
     </row>
     <row r="48">
@@ -502,7 +466,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.26169989324114806</v>
+        <v>0.26343725815095309</v>
       </c>
     </row>
     <row r="49">
@@ -510,7 +474,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.3365521424250815</v>
+        <v>-1.3350088916306277</v>
       </c>
     </row>
     <row r="50">
@@ -518,7 +482,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.14154174938297276</v>
+        <v>0.14319389693652851</v>
       </c>
     </row>
     <row r="51">
@@ -526,7 +490,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.47406787931174671</v>
+        <v>0.47587211530179463</v>
       </c>
     </row>
     <row r="52">
@@ -534,7 +498,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.9046079396478997</v>
+        <v>-1.9045215224336653</v>
       </c>
     </row>
     <row r="53">
@@ -542,7 +506,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.34700187143470695</v>
+        <v>0.34861033582273993</v>
       </c>
     </row>
     <row r="54">
@@ -550,7 +514,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.12852994222766997</v>
+        <v>0.13014010782719843</v>
       </c>
     </row>
     <row r="55">
@@ -558,7 +522,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.43582729216815569</v>
+        <v>0.43731490485053698</v>
       </c>
     </row>
     <row r="56">
@@ -566,7 +530,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.18367901241383772</v>
+        <v>0.18533041654369206</v>
       </c>
     </row>
     <row r="57">
@@ -574,7 +538,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.1064049766091033</v>
+        <v>-2.1059571052156834</v>
       </c>
     </row>
     <row r="58">
@@ -582,7 +546,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.43158859519600129</v>
+        <v>0.43334683849514649</v>
       </c>
     </row>
     <row r="59">
@@ -590,7 +554,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.19422464997996586</v>
+        <v>0.19590864476319811</v>
       </c>
     </row>
     <row r="60">
@@ -598,7 +562,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.507417066518978</v>
+        <v>0.50906237780213948</v>
       </c>
     </row>
     <row r="61">
@@ -606,7 +570,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.46207604055635315</v>
+        <v>0.46384269044498466</v>
       </c>
     </row>
     <row r="62">
@@ -614,7 +578,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.16631425442264755</v>
+        <v>0.16789051027750379</v>
       </c>
     </row>
     <row r="63">
@@ -622,7 +586,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1.9834113825773461</v>
+        <v>-1.983265075669788</v>
       </c>
     </row>
     <row r="64">
@@ -630,7 +594,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-2.1308719003931396</v>
+        <v>-2.130984162105332</v>
       </c>
     </row>
     <row r="65">
@@ -638,7 +602,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.22466913801422403</v>
+        <v>0.22619735712700229</v>
       </c>
     </row>
     <row r="66">
@@ -646,7 +610,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.4160436031830389</v>
+        <v>0.41801129330682529</v>
       </c>
     </row>
     <row r="67">
@@ -654,7 +618,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.422002672089691</v>
+        <v>-1.4227271133376986</v>
       </c>
     </row>
     <row r="68">
@@ -662,7 +626,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.22086290857634333</v>
+        <v>0.22240737379908299</v>
       </c>
     </row>
     <row r="69">
@@ -670,7 +634,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-2.1095305919278946</v>
+        <v>-2.1094995275651867</v>
       </c>
     </row>
     <row r="70">
@@ -678,7 +642,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.27124190536549247</v>
+        <v>0.27292354328164542</v>
       </c>
     </row>
     <row r="71">
@@ -686,7 +650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.48170897831117704</v>
+        <v>0.48345649034351013</v>
       </c>
     </row>
     <row r="72">
@@ -694,7 +658,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-2.0698907850363217</v>
+        <v>-2.0691136961148433</v>
       </c>
     </row>
     <row r="73">
@@ -702,7 +666,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.19632972190898862</v>
+        <v>0.1979101716292431</v>
       </c>
     </row>
     <row r="74">
@@ -710,7 +674,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-2.1742304353162911</v>
+        <v>-2.1744634426166218</v>
       </c>
     </row>
     <row r="75">
@@ -718,7 +682,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.61302562654774106</v>
+        <v>0.61452052706928217</v>
       </c>
     </row>
     <row r="76">
@@ -726,7 +690,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.20418646334600563</v>
+        <v>0.20581433725196852</v>
       </c>
     </row>
     <row r="77">
@@ -734,7 +698,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.74881856477658693</v>
+        <v>0.74997382671267521</v>
       </c>
     </row>
     <row r="78">
@@ -742,7 +706,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.54019198216516706</v>
+        <v>0.54190454212565886</v>
       </c>
     </row>
     <row r="79">
@@ -750,7 +714,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.43469203831616393</v>
+        <v>0.43627671080262026</v>
       </c>
     </row>
     <row r="80">
@@ -758,7 +722,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.49662105581866961</v>
+        <v>0.49835164160490125</v>
       </c>
     </row>
     <row r="81">
@@ -766,7 +730,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.20580733334416346</v>
+        <v>0.20741735387331631</v>
       </c>
     </row>
     <row r="82">
@@ -774,7 +738,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.28543701749187017</v>
+        <v>0.28699408795288328</v>
       </c>
     </row>
     <row r="83">
@@ -782,7 +746,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-2.2214245170901488</v>
+        <v>-2.2215492545850082</v>
       </c>
     </row>
     <row r="84">
@@ -790,7 +754,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1.9296797472323926</v>
+        <v>-1.9299330568393274</v>
       </c>
     </row>
     <row r="85">
@@ -798,7 +762,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-2.18904552325598</v>
+        <v>-2.1892178471583872</v>
       </c>
     </row>
     <row r="86">
@@ -806,7 +770,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.57774451858215825</v>
+        <v>-0.57952472027187374</v>
       </c>
     </row>
     <row r="87">
@@ -814,7 +778,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-2.1804114121076701</v>
+        <v>-2.1806249961429049</v>
       </c>
     </row>
     <row r="88">
@@ -822,7 +786,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.27637210155181241</v>
+        <v>0.27799250214440929</v>
       </c>
     </row>
     <row r="89">
@@ -830,7 +794,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.72133006365803243</v>
+        <v>0.72290565532230344</v>
       </c>
     </row>
     <row r="90">
@@ -838,7 +802,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.44812187476533133</v>
+        <v>0.45000464834013931</v>
       </c>
     </row>
     <row r="91">
@@ -846,7 +810,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-1.9117281666154986</v>
+        <v>-1.9121901460203694</v>
       </c>
     </row>
     <row r="92">
@@ -854,7 +818,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.32880725949203976</v>
+        <v>0.33031162105908846</v>
       </c>
     </row>
     <row r="93">
@@ -862,7 +826,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.24712941920931306</v>
+        <v>0.24872846487388325</v>
       </c>
     </row>
     <row r="94">
@@ -870,7 +834,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.59562412079956328</v>
+        <v>0.59714289881835714</v>
       </c>
     </row>
     <row r="95">
@@ -878,7 +842,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.92801952141790633</v>
+        <v>0.92877254982642121</v>
       </c>
     </row>
     <row r="96">
@@ -886,7 +850,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.43721370365765494</v>
+        <v>0.43891396719518683</v>
       </c>
     </row>
     <row r="97">
@@ -894,7 +858,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.72021707241083999</v>
+        <v>0.71903118420784951</v>
       </c>
     </row>
     <row r="98">
@@ -902,7 +866,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-2.2316420921064819</v>
+        <v>-2.2318709941792458</v>
       </c>
     </row>
     <row r="99">
@@ -910,7 +874,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.86543435532556556</v>
+        <v>0.86664880546129619</v>
       </c>
     </row>
     <row r="100">
@@ -918,7 +882,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.32947328008209847</v>
+        <v>0.3311019656871827</v>
       </c>
     </row>
     <row r="101">
@@ -926,7 +890,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-2.0754882655600042</v>
+        <v>-2.0757392889081081</v>
       </c>
     </row>
     <row r="102">
@@ -934,7 +898,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-2.1336827645125034</v>
+        <v>-2.133998975731541</v>
       </c>
     </row>
     <row r="103">
@@ -942,7 +906,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.77776852271120289</v>
+        <v>0.77910637857221121</v>
       </c>
     </row>
     <row r="104">
@@ -950,7 +914,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.1999306844202309</v>
+        <v>1.1984547904860834</v>
       </c>
     </row>
     <row r="105">
@@ -958,7 +922,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-1.9919016672347916</v>
+        <v>-1.9922236778665203</v>
       </c>
     </row>
     <row r="106">
@@ -966,7 +930,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-2.1408221658075508</v>
+        <v>-2.1410873373239938</v>
       </c>
     </row>
     <row r="107">
@@ -974,7 +938,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.72707076456016706</v>
+        <v>0.72614143536737374</v>
       </c>
     </row>
     <row r="108">
@@ -982,7 +946,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.72356534116244386</v>
+        <v>0.72527759155113625</v>
       </c>
     </row>
     <row r="109">
@@ -990,7 +954,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.33987473361309739</v>
+        <v>0.34150023999563484</v>
       </c>
     </row>
     <row r="110">
@@ -998,7 +962,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.27252354537196849</v>
+        <v>0.27416227987752684</v>
       </c>
     </row>
     <row r="111">
@@ -1006,7 +970,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.62316198637830011</v>
+        <v>0.62478441259968753</v>
       </c>
     </row>
     <row r="112">
@@ -1014,7 +978,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.7261986679916197</v>
+        <v>0.72744437054404598</v>
       </c>
     </row>
     <row r="113">
@@ -1022,7 +986,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.79871650984639464</v>
+        <v>-0.80015024561797543</v>
       </c>
     </row>
     <row r="114">
@@ -1030,7 +994,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.46220268269580461</v>
+        <v>0.46374795718821105</v>
       </c>
     </row>
     <row r="115">
@@ -1038,7 +1002,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.46091672923008781</v>
+        <v>0.46272479036007547</v>
       </c>
     </row>
     <row r="116">
@@ -1046,7 +1010,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-1.6302276054708895</v>
+        <v>-1.6309013167873365</v>
       </c>
     </row>
     <row r="117">
@@ -1054,7 +1018,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-2.1512509150059356</v>
+        <v>-2.1515603263958094</v>
       </c>
     </row>
     <row r="118">
@@ -1062,7 +1026,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.41767905485777862</v>
+        <v>0.41927699201280516</v>
       </c>
     </row>
     <row r="119">
@@ -1070,7 +1034,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-1.7818279346743913</v>
+        <v>-1.7824255847464541</v>
       </c>
     </row>
     <row r="120">
@@ -1078,7 +1042,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.52720557528664813</v>
+        <v>0.52870324748107467</v>
       </c>
     </row>
     <row r="121">
@@ -1086,7 +1050,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-2.171825374797816</v>
+        <v>-2.17215156039877</v>
       </c>
     </row>
     <row r="122">
@@ -1094,7 +1058,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.95809450637657867</v>
+        <v>-0.9594105663844853</v>
       </c>
     </row>
     <row r="123">
@@ -1102,7 +1066,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.85390894309282062</v>
+        <v>0.85407951976054286</v>
       </c>
     </row>
     <row r="124">
@@ -1110,7 +1074,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.36992741784377953</v>
+        <v>0.37156507318033183</v>
       </c>
     </row>
     <row r="125">
@@ -1118,7 +1082,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.26677149859214128</v>
+        <v>0.26434222355169068</v>
       </c>
     </row>
     <row r="126">
@@ -1126,7 +1090,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-1.9697101648480744</v>
+        <v>-1.9700770818730049</v>
       </c>
     </row>
     <row r="127">
@@ -1134,7 +1098,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.59248698878639761</v>
+        <v>0.59406787746400402</v>
       </c>
     </row>
     <row r="128">
@@ -1142,7 +1106,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.79142601860145245</v>
+        <v>0.79257539219633466</v>
       </c>
     </row>
     <row r="129">
@@ -1150,7 +1114,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.73437679575691994</v>
+        <v>0.73600350907319179</v>
       </c>
     </row>
     <row r="130">
@@ -1158,7 +1122,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.1109226331328268</v>
+        <v>1.1102497623107583</v>
       </c>
     </row>
     <row r="131">
@@ -1166,7 +1130,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.27152249588680388</v>
+        <v>0.26964078531847885</v>
       </c>
     </row>
     <row r="132">
@@ -1174,7 +1138,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-1.8305650965231786</v>
+        <v>-1.8310929779303098</v>
       </c>
     </row>
     <row r="133">
@@ -1182,7 +1146,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.53824671863961171</v>
+        <v>0.53976452757431537</v>
       </c>
     </row>
     <row r="134">
@@ -1190,7 +1154,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-1.9943463310088805</v>
+        <v>-1.9947763132763812</v>
       </c>
     </row>
     <row r="135">
@@ -1198,7 +1162,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.72487579024140703</v>
+        <v>0.72581945519164159</v>
       </c>
     </row>
     <row r="136">
@@ -1206,7 +1170,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.56750260032324029</v>
+        <v>0.56916006475229186</v>
       </c>
     </row>
     <row r="137">
@@ -1214,7 +1178,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.79839745349604652</v>
+        <v>0.79837599022233618</v>
       </c>
     </row>
     <row r="138">
@@ -1222,7 +1186,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.73461331156892717</v>
+        <v>0.73386089848214719</v>
       </c>
     </row>
     <row r="139">
@@ -1230,7 +1194,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.6290452624186923</v>
+        <v>0.63071436915994883</v>
       </c>
     </row>
     <row r="140">
@@ -1238,7 +1202,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.74370687645634526</v>
+        <v>0.74498458583564386</v>
       </c>
     </row>
     <row r="141">
@@ -1246,7 +1210,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.82043240065397649</v>
+        <v>-0.82192502952803992</v>
       </c>
     </row>
     <row r="142">
@@ -1254,7 +1218,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-1.3980119958092114</v>
+        <v>-1.3985652712282866</v>
       </c>
     </row>
     <row r="143">
@@ -1262,7 +1226,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-1.8746526798411063</v>
+        <v>-1.8751593859019795</v>
       </c>
     </row>
     <row r="144">
@@ -1270,7 +1234,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-1.6972986666822902</v>
+        <v>-1.6979223831865364</v>
       </c>
     </row>
     <row r="145">
@@ -1278,7 +1242,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-2.0216207587286994</v>
+        <v>-2.0220264392136942</v>
       </c>
     </row>
     <row r="146">
@@ -1286,7 +1250,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.49295204053645941</v>
+        <v>0.49453100127867256</v>
       </c>
     </row>
     <row r="147">
@@ -1294,7 +1258,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.66061511777954995</v>
+        <v>0.66190293947855106</v>
       </c>
     </row>
     <row r="148">
@@ -1302,7 +1266,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.75004319021222454</v>
+        <v>0.75137093246144016</v>
       </c>
     </row>
     <row r="149">
@@ -1310,7 +1274,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.79894231537974636</v>
+        <v>0.79908292827715055</v>
       </c>
     </row>
     <row r="150">
@@ -1318,7 +1282,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.83289820794754388</v>
+        <v>0.83216975397451309</v>
       </c>
     </row>
     <row r="151">
@@ -1326,7 +1290,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.59768111362450815</v>
+        <v>0.5992214569857971</v>
       </c>
     </row>
     <row r="152">
@@ -1334,7 +1298,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-1.9679455415872973</v>
+        <v>-1.9683938068302451</v>
       </c>
     </row>
     <row r="153">
@@ -1342,7 +1306,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-0.48842490993524224</v>
+        <v>-0.4900075169970684</v>
       </c>
     </row>
     <row r="154">
@@ -1350,7 +1314,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.80512523359805033</v>
+        <v>0.80585355331160791</v>
       </c>
     </row>
     <row r="155">
@@ -1358,7 +1322,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.38183633381738186</v>
+        <v>0.37929647840371084</v>
       </c>
     </row>
     <row r="156">
@@ -1366,7 +1330,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-1.6302785407330407</v>
+        <v>-1.631045039964506</v>
       </c>
     </row>
     <row r="157">
@@ -1374,7 +1338,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.70849188924477979</v>
+        <v>0.70979852818150979</v>
       </c>
     </row>
     <row r="158">
@@ -1382,7 +1346,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.9364525330164607</v>
+        <v>0.93677155351013863</v>
       </c>
     </row>
     <row r="159">
@@ -1390,7 +1354,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-1.6823735118264156</v>
+        <v>-1.6830470267113171</v>
       </c>
     </row>
     <row r="160">
@@ -1398,7 +1362,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.67582534818365025</v>
+        <v>0.67705795574903627</v>
       </c>
     </row>
     <row r="161">
@@ -1406,7 +1370,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.7781914238897728</v>
+        <v>0.77929559008393323</v>
       </c>
     </row>
     <row r="162">
@@ -1414,7 +1378,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-1.0567388298659937</v>
+        <v>-1.0580584407918503</v>
       </c>
     </row>
     <row r="163">
@@ -1422,7 +1386,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.83187789406606449</v>
+        <v>0.83288732652623043</v>
       </c>
     </row>
     <row r="164">
@@ -1430,7 +1394,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.98504980301064526</v>
+        <v>0.9825912711605691</v>
       </c>
     </row>
     <row r="165">
@@ -1438,7 +1402,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-1.7947901487517071</v>
+        <v>-1.7953786614883955</v>
       </c>
     </row>
     <row r="166">
@@ -1446,7 +1410,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-1.3016051839769232</v>
+        <v>-1.3025547370317261</v>
       </c>
     </row>
     <row r="167">
@@ -1454,7 +1418,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.75620031861668746</v>
+        <v>0.75446974534468503</v>
       </c>
     </row>
     <row r="168">
@@ -1462,7 +1426,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.88702262912435326</v>
+        <v>0.88773695379188367</v>
       </c>
     </row>
     <row r="169">
@@ -1470,7 +1434,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.17053650359531491</v>
+        <v>0.16841419586873344</v>
       </c>
     </row>
     <row r="170">
@@ -1478,7 +1442,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.95538025238253443</v>
+        <v>0.95442138263612286</v>
       </c>
     </row>
     <row r="171">
@@ -1486,7 +1450,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-1.7171933896961198</v>
+        <v>-1.7178370684423068</v>
       </c>
     </row>
     <row r="172">
@@ -1494,7 +1458,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.87302120993808574</v>
+        <v>0.87336242462727587</v>
       </c>
     </row>
     <row r="173">
@@ -1502,7 +1466,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.69275003736473484</v>
+        <v>0.69398503162679204</v>
       </c>
     </row>
     <row r="174">
@@ -1510,7 +1474,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.72599090492666407</v>
+        <v>0.72705209108110547</v>
       </c>
     </row>
     <row r="175">
@@ -1518,7 +1482,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-1.7223152059370777</v>
+        <v>-1.7229311673611432</v>
       </c>
     </row>
     <row r="176">
@@ -1526,7 +1490,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.89668288711947963</v>
+        <v>0.89653392786035702</v>
       </c>
     </row>
     <row r="177">
@@ -1534,7 +1498,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-1.5255676374736344</v>
+        <v>-1.5263388677607233</v>
       </c>
     </row>
     <row r="178">
@@ -1542,7 +1506,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.3578525765950056</v>
+        <v>1.3550391072256374</v>
       </c>
     </row>
     <row r="179">
@@ -1550,7 +1514,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.22599918001783789</v>
+        <v>-0.22803465951486016</v>
       </c>
     </row>
     <row r="180">
@@ -1558,7 +1522,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.95485366658974702</v>
+        <v>0.95493588169497301</v>
       </c>
     </row>
     <row r="181">
@@ -1566,7 +1530,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.0421957002156021</v>
+        <v>1.0412004929578871</v>
       </c>
     </row>
     <row r="182">
@@ -1574,7 +1538,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.8068148302583924</v>
+        <v>0.80358517461626933</v>
       </c>
     </row>
     <row r="183">
@@ -1582,7 +1546,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.81309843131104742</v>
+        <v>0.81398310390621387</v>
       </c>
     </row>
     <row r="184">
@@ -1590,7 +1554,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.1201760732739032</v>
+        <v>1.1201464556415022</v>
       </c>
     </row>
     <row r="185">
@@ -1598,7 +1562,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-1.3329296240787214</v>
+        <v>-1.3339594395281198</v>
       </c>
     </row>
     <row r="186">
@@ -1606,7 +1570,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.90903012193009824</v>
+        <v>0.90952482093609177</v>
       </c>
     </row>
     <row r="187">
@@ -1614,7 +1578,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.86777977531664419</v>
+        <v>0.86821157848035313</v>
       </c>
     </row>
     <row r="188">
@@ -1622,7 +1586,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.91843391515260475</v>
+        <v>0.91751195373275385</v>
       </c>
     </row>
     <row r="189">
@@ -1630,7 +1594,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-1.4787035914545545</v>
+        <v>-1.479630673839827</v>
       </c>
     </row>
     <row r="190">
@@ -1638,7 +1602,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-1.0136730256185382</v>
+        <v>-1.0148796974073953</v>
       </c>
     </row>
     <row r="191">
@@ -1646,7 +1610,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.97368814054769759</v>
+        <v>0.97367801146511601</v>
       </c>
     </row>
     <row r="192">
@@ -1654,7 +1618,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.5398254236681868</v>
+        <v>-1.5405602132943834</v>
       </c>
     </row>
     <row r="193">
@@ -1662,7 +1626,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.13882624631745757</v>
+        <v>-0.14043842970274412</v>
       </c>
     </row>
     <row r="194">
@@ -1670,7 +1634,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1.1474394891718576</v>
+        <v>1.1446719785339137</v>
       </c>
     </row>
     <row r="195">
@@ -1678,7 +1642,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.60346003270915027</v>
+        <v>0.60085548565238822</v>
       </c>
     </row>
     <row r="196">
@@ -1686,7 +1650,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.99865350592846724</v>
+        <v>0.99593889284592252</v>
       </c>
     </row>
     <row r="197">
@@ -1694,7 +1658,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.88305771014397738</v>
+        <v>0.88251227461583115</v>
       </c>
     </row>
     <row r="198">
@@ -1702,7 +1666,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-1.5026575090174454</v>
+        <v>-1.5034517714895737</v>
       </c>
     </row>
     <row r="199">
@@ -1710,7 +1674,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.94345928238059251</v>
+        <v>0.94355036480029331</v>
       </c>
     </row>
     <row r="200">
@@ -1718,7 +1682,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.0039963954111026</v>
+        <v>1.0025126941405418</v>
       </c>
     </row>
     <row r="201">
@@ -1726,7 +1690,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.99495304590166578</v>
+        <v>0.99206738242623105</v>
       </c>
     </row>
     <row r="202">
@@ -1734,7 +1698,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.97094977701850504</v>
+        <v>0.9709367202322059</v>
       </c>
     </row>
     <row r="203">
@@ -1742,7 +1706,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-1.1821109605191393</v>
+        <v>-1.1831815832391628</v>
       </c>
     </row>
     <row r="204">
@@ -1750,7 +1714,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.17141287629966792</v>
+        <v>0.16909967037509191</v>
       </c>
     </row>
     <row r="205">
@@ -1758,7 +1722,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-1.3173964648330552</v>
+        <v>-1.3184334833139379</v>
       </c>
     </row>
     <row r="206">
@@ -1766,7 +1730,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.99526138951312582</v>
+        <v>0.99330210592899604</v>
       </c>
     </row>
     <row r="207">
@@ -1774,7 +1738,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.98593809536517174</v>
+        <v>0.98532785065049644</v>
       </c>
     </row>
     <row r="208">
@@ -1782,7 +1746,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.9451707718378547</v>
+        <v>0.94500231310149663</v>
       </c>
     </row>
     <row r="209">
@@ -1790,7 +1754,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.76884912703565944</v>
+        <v>0.76575887931108855</v>
       </c>
     </row>
     <row r="210">
@@ -1798,7 +1762,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.054190537917717</v>
+        <v>1.0529243688283623</v>
       </c>
     </row>
     <row r="211">
@@ -1806,7 +1770,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.47340492732207223</v>
+        <v>-0.47513805411146559</v>
       </c>
     </row>
     <row r="212">
@@ -1814,7 +1778,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.0533370565988565</v>
+        <v>1.050685684906566</v>
       </c>
     </row>
     <row r="213">
@@ -1822,7 +1786,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-1.0564013360697362</v>
+        <v>-1.0575950601708526</v>
       </c>
     </row>
     <row r="214">
@@ -1830,7 +1794,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.96149111258351427</v>
+        <v>0.96068634944026354</v>
       </c>
     </row>
     <row r="215">
@@ -1838,7 +1802,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.2838151677718117</v>
+        <v>-1.2847862474509004</v>
       </c>
     </row>
     <row r="216">
@@ -1846,7 +1810,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-0.1080199254301991</v>
+        <v>-0.11001794173035978</v>
       </c>
     </row>
     <row r="217">
@@ -1854,7 +1818,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-1.2723238893608306</v>
+        <v>-1.2732569011637418</v>
       </c>
     </row>
     <row r="218">
@@ -1862,7 +1826,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.9728351144526971</v>
+        <v>0.97062646838610722</v>
       </c>
     </row>
     <row r="219">
@@ -1870,7 +1834,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.69974995437682153</v>
+        <v>0.69702489945193191</v>
       </c>
     </row>
     <row r="220">
@@ -1878,7 +1842,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1.0323005178106004</v>
+        <v>1.0292336427263085</v>
       </c>
     </row>
     <row r="221">
@@ -1886,7 +1850,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.94179016812567096</v>
+        <v>0.93884568167842075</v>
       </c>
     </row>
     <row r="222">
@@ -1894,7 +1858,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.97935403992959735</v>
+        <v>0.97742695354465703</v>
       </c>
     </row>
     <row r="223">
@@ -1902,7 +1866,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.98033746162017965</v>
+        <v>0.97900073852867409</v>
       </c>
     </row>
     <row r="224">
@@ -1910,7 +1874,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.97730697681035794</v>
+        <v>0.97602006299767807</v>
       </c>
     </row>
     <row r="225">
@@ -1918,7 +1882,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.90779634387170716</v>
+        <v>-0.90909325510736905</v>
       </c>
     </row>
     <row r="226">
@@ -1926,7 +1890,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.92733498707756457</v>
+        <v>0.92513507780807047</v>
       </c>
     </row>
     <row r="227">
@@ -1934,7 +1898,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.24404857627653606</v>
+        <v>-0.24602552559279559</v>
       </c>
     </row>
     <row r="228">
@@ -1942,7 +1906,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.45049984507434893</v>
+        <v>0.44777249793227525</v>
       </c>
     </row>
     <row r="229">
@@ -1950,7 +1914,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.68490027541482879</v>
+        <v>-0.68640392078949442</v>
       </c>
     </row>
     <row r="230">
@@ -1958,7 +1922,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.95011361629769242</v>
+        <v>0.94737541944048786</v>
       </c>
     </row>
     <row r="231">
@@ -1966,7 +1930,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-0.40041945503514637</v>
+        <v>-0.40217399390114117</v>
       </c>
     </row>
     <row r="232">
@@ -1974,7 +1938,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.94194460367916011</v>
+        <v>0.93990933470318871</v>
       </c>
     </row>
     <row r="233">
@@ -1982,7 +1946,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.94306964859739584</v>
+        <v>0.94120902748216773</v>
       </c>
     </row>
     <row r="234">
@@ -1990,7 +1954,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.56680850303070807</v>
+        <v>-0.56841679336091577</v>
       </c>
     </row>
     <row r="235">
@@ -1998,7 +1962,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.50658235520648276</v>
+        <v>0.50379924821559929</v>
       </c>
     </row>
     <row r="236">
@@ -2006,7 +1970,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.96077048214977034</v>
+        <v>0.95777891825470518</v>
       </c>
     </row>
     <row r="237">
@@ -2014,7 +1978,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.86195910173321488</v>
+        <v>0.85933456612971659</v>
       </c>
     </row>
     <row r="238">
@@ -2022,7 +1986,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>-0.34128274556679611</v>
+        <v>-0.34307106215016048</v>
       </c>
     </row>
     <row r="239">
@@ -2030,7 +1994,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.77204660067985798</v>
+        <v>0.76925521273543229</v>
       </c>
     </row>
     <row r="240">
@@ -2038,7 +2002,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.92503478185044363</v>
+        <v>0.92296980780772986</v>
       </c>
     </row>
     <row r="241">
@@ -2046,7 +2010,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.66429880173499944</v>
+        <v>0.66119662313770022</v>
       </c>
     </row>
     <row r="242">
@@ -2054,7 +2018,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.16159448474152388</v>
+        <v>0.1591814539369982</v>
       </c>
     </row>
     <row r="243">
@@ -2062,7 +2026,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.93414892785319659</v>
+        <v>0.93149980813902</v>
       </c>
     </row>
     <row r="244">
@@ -2070,7 +2034,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.7677691148704644</v>
+        <v>0.7646865036319993</v>
       </c>
     </row>
     <row r="245">
@@ -2078,7 +2042,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.86474388546022285</v>
+        <v>0.86220242881705889</v>
       </c>
     </row>
     <row r="246">
@@ -2086,7 +2050,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.10840466720269765</v>
+        <v>0.10605988994516367</v>
       </c>
     </row>
     <row r="247">
@@ -2094,7 +2058,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.51820870299480437</v>
+        <v>0.51538729255625559</v>
       </c>
     </row>
     <row r="248">
@@ -2102,7 +2066,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.8044072701996976</v>
+        <v>0.80120690983047904</v>
       </c>
     </row>
     <row r="249">
@@ -2110,7 +2074,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.82018201864835116</v>
+        <v>0.81721794327723396</v>
       </c>
     </row>
     <row r="250">
@@ -2118,7 +2082,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.6708487674440059</v>
+        <v>0.66766674074851384</v>
       </c>
     </row>
     <row r="251">
@@ -2126,7 +2090,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.62962062454158008</v>
+        <v>0.62643388449491599</v>
       </c>
     </row>
   </sheetData>
